--- a/Assets/GameDocument.xlsx
+++ b/Assets/GameDocument.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victor\Proyectos\Repositories\CombatAI\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87254B7-2720-454E-A104-5219D90F79FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C1904-102A-423B-87BA-91F86DD94DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Animation List</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>How many consecutive times can you beat an AI?</t>
+  </si>
+  <si>
+    <t>Get stamina back on parry</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="B2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +549,9 @@
       </c>
     </row>
     <row r="5" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>

--- a/Assets/GameDocument.xlsx
+++ b/Assets/GameDocument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victor\Proyectos\Repositories\CombatAI\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C1904-102A-423B-87BA-91F86DD94DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F657B6-F6E7-42F2-9B07-47E7F56C82F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Animation List</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Get stamina back on parry</t>
+  </si>
+  <si>
+    <t>IMPORTANT: Needs anticipation</t>
+  </si>
+  <si>
+    <t>Animation is played right before a successful block</t>
   </si>
 </sst>
 </file>
@@ -522,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4691842E-AC56-4CBF-838E-C542A415F2A9}">
   <dimension ref="B2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5F78E-1AB1-42C1-91CC-F861CCA89AFE}">
   <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,31 +694,41 @@
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>

--- a/Assets/GameDocument.xlsx
+++ b/Assets/GameDocument.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victor\Proyectos\Repositories\CombatAI\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F657B6-F6E7-42F2-9B07-47E7F56C82F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F13A5-745A-4203-912D-F580A39C4900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Animation List</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Animation is played right before a successful block</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,10 +629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5F78E-1AB1-42C1-91CC-F861CCA89AFE}">
-  <dimension ref="B2:C24"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,145 +643,188 @@
     <col min="4" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/GameDocument.xlsx
+++ b/Assets/GameDocument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victor\Proyectos\Repositories\CombatAI\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F13A5-745A-4203-912D-F580A39C4900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4A7489-627C-4AA3-8255-CF43D3206A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Animation List</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Movement</t>
   </si>
   <si>
-    <t>The characters always moves at same speed</t>
-  </si>
-  <si>
     <t>Jump</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Characters move front and backwards always at the same speed</t>
+  </si>
+  <si>
+    <t>Wall jump (bounce on walls)</t>
+  </si>
+  <si>
+    <t>Timmed attacks / combos</t>
   </si>
 </sst>
 </file>
@@ -515,17 +521,17 @@
   <sheetData>
     <row r="2" spans="2:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -537,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4691842E-AC56-4CBF-838E-C542A415F2A9}">
   <dimension ref="B2:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,29 +556,33 @@
   <sheetData>
     <row r="2" spans="2:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -631,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5F78E-1AB1-42C1-91CC-F861CCA89AFE}">
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -667,7 +677,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -675,100 +685,102 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
     </row>

--- a/Assets/GameDocument.xlsx
+++ b/Assets/GameDocument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victor\Proyectos\Repositories\CombatAI\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4A7489-627C-4AA3-8255-CF43D3206A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4437BC39-50A9-45F9-A075-734476E27D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3084" yWindow="0" windowWidth="21600" windowHeight="11328" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Animation List</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Timmed attacks / combos</t>
+  </si>
+  <si>
+    <t>Allow character to sligly move during attack animations</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="B2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +588,9 @@
       </c>
     </row>
     <row r="8" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
